--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll3-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll3-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dll3</t>
+  </si>
+  <si>
+    <t>Notch1</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll3</t>
-  </si>
-  <si>
-    <t>Notch1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H2">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I2">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J2">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N2">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O2">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P2">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q2">
-        <v>75.285236497056</v>
+        <v>14.642093353178</v>
       </c>
       <c r="R2">
-        <v>301.140945988224</v>
+        <v>58.568373412712</v>
       </c>
       <c r="S2">
-        <v>0.1272682633522954</v>
+        <v>0.07478075546232714</v>
       </c>
       <c r="T2">
-        <v>0.08079134684438245</v>
+        <v>0.04902968956534315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H3">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I3">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J3">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P3">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q3">
-        <v>4.735548361597334</v>
+        <v>0.8362669802826667</v>
       </c>
       <c r="R3">
-        <v>28.41329016958401</v>
+        <v>5.017601881696001</v>
       </c>
       <c r="S3">
-        <v>0.008005354622547648</v>
+        <v>0.004271020204919234</v>
       </c>
       <c r="T3">
-        <v>0.00762283579055606</v>
+        <v>0.004200414802174459</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H4">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I4">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J4">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N4">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O4">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P4">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q4">
-        <v>14.08638184115333</v>
+        <v>2.812439747812667</v>
       </c>
       <c r="R4">
-        <v>84.51829104692001</v>
+        <v>16.874638486876</v>
       </c>
       <c r="S4">
-        <v>0.02381276113691956</v>
+        <v>0.01436381833940841</v>
       </c>
       <c r="T4">
-        <v>0.02267491902922161</v>
+        <v>0.01412636613123608</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H5">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I5">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J5">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N5">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O5">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P5">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q5">
-        <v>35.65330516523751</v>
+        <v>3.995576503995001</v>
       </c>
       <c r="R5">
-        <v>142.61322066095</v>
+        <v>15.98230601598</v>
       </c>
       <c r="S5">
-        <v>0.06027123566685796</v>
+        <v>0.02040638741122482</v>
       </c>
       <c r="T5">
-        <v>0.03826086863479475</v>
+        <v>0.01337936256108723</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H6">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I6">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J6">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N6">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O6">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P6">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q6">
-        <v>50.28795208458468</v>
+        <v>5.007481933783334</v>
       </c>
       <c r="R6">
-        <v>301.7277125075081</v>
+        <v>30.04489160270001</v>
       </c>
       <c r="S6">
-        <v>0.08501082851215862</v>
+        <v>0.02557443617793879</v>
       </c>
       <c r="T6">
-        <v>0.08094876700928423</v>
+        <v>0.02515165818118894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.122431</v>
+        <v>0.198214</v>
       </c>
       <c r="H7">
-        <v>2.244862</v>
+        <v>0.396428</v>
       </c>
       <c r="I7">
-        <v>0.3274916767748758</v>
+        <v>0.1484042244548945</v>
       </c>
       <c r="J7">
-        <v>0.252317076295933</v>
+        <v>0.1147463875820991</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N7">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O7">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P7">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q7">
-        <v>13.67849340890267</v>
+        <v>1.763731164824</v>
       </c>
       <c r="R7">
-        <v>82.07096045341601</v>
+        <v>10.582386988944</v>
       </c>
       <c r="S7">
-        <v>0.02312323348409666</v>
+        <v>0.009007806859076073</v>
       </c>
       <c r="T7">
-        <v>0.02201833898769387</v>
+        <v>0.00885889634106923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.314533</v>
       </c>
       <c r="I8">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J8">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N8">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O8">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P8">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q8">
-        <v>29.39005539113599</v>
+        <v>32.36823988523033</v>
       </c>
       <c r="R8">
-        <v>176.340332346816</v>
+        <v>194.209439311382</v>
       </c>
       <c r="S8">
-        <v>0.04968333080289801</v>
+        <v>0.1653125255534578</v>
       </c>
       <c r="T8">
-        <v>0.04730931858679357</v>
+        <v>0.1625796989955281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.314533</v>
       </c>
       <c r="I9">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J9">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P9">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q9">
         <v>1.848676249561778</v>
@@ -1013,10 +1013,10 @@
         <v>16.638086246056</v>
       </c>
       <c r="S9">
-        <v>0.003125152111218545</v>
+        <v>0.009441642203263635</v>
       </c>
       <c r="T9">
-        <v>0.004463735053765901</v>
+        <v>0.01392833975185103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>1.314533</v>
       </c>
       <c r="I10">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J10">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N10">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O10">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P10">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q10">
-        <v>5.499080056531111</v>
+        <v>6.217261577573445</v>
       </c>
       <c r="R10">
-        <v>49.49172050877999</v>
+        <v>55.955354198161</v>
       </c>
       <c r="S10">
-        <v>0.009296090460675172</v>
+        <v>0.0317530769995351</v>
       </c>
       <c r="T10">
-        <v>0.01327784484580334</v>
+        <v>0.04684223730309704</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>1.314533</v>
       </c>
       <c r="I11">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J11">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N11">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O11">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P11">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q11">
-        <v>13.91843424340417</v>
+        <v>8.832738300567501</v>
       </c>
       <c r="R11">
-        <v>83.510605460425</v>
+        <v>52.99642980340501</v>
       </c>
       <c r="S11">
-        <v>0.02352884891064181</v>
+        <v>0.04511095695029882</v>
       </c>
       <c r="T11">
-        <v>0.02240457294439598</v>
+        <v>0.04436521538719183</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>1.314533</v>
       </c>
       <c r="I12">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J12">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N12">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O12">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P12">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q12">
-        <v>19.63154751238022</v>
+        <v>11.06968604448056</v>
       </c>
       <c r="R12">
-        <v>176.683927611422</v>
+        <v>99.627174400325</v>
       </c>
       <c r="S12">
-        <v>0.03318675845451328</v>
+        <v>0.05653559673264654</v>
       </c>
       <c r="T12">
-        <v>0.04740149975500295</v>
+        <v>0.08340148698853975</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>1.314533</v>
       </c>
       <c r="I13">
-        <v>0.127847091520075</v>
+        <v>0.3280667197832742</v>
       </c>
       <c r="J13">
-        <v>0.1477503397779114</v>
+        <v>0.3804925815216368</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N13">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O13">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P13">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q13">
-        <v>5.339847460938222</v>
+        <v>3.898955706609333</v>
       </c>
       <c r="R13">
-        <v>48.05862714844399</v>
+        <v>35.090601359484</v>
       </c>
       <c r="S13">
-        <v>0.00902691078012814</v>
+        <v>0.01991292134407231</v>
       </c>
       <c r="T13">
-        <v>0.01289336859214962</v>
+        <v>0.02937560309542907</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H14">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I14">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J14">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N14">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O14">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P14">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q14">
-        <v>12.834736433312</v>
+        <v>20.50713520322133</v>
       </c>
       <c r="R14">
-        <v>77.00841859987199</v>
+        <v>123.042811219328</v>
       </c>
       <c r="S14">
-        <v>0.02169687833172878</v>
+        <v>0.1047349600822021</v>
       </c>
       <c r="T14">
-        <v>0.02066013918041867</v>
+        <v>0.1030035578215562</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H15">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I15">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J15">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P15">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q15">
-        <v>0.8073231607724444</v>
+        <v>1.171242363847111</v>
       </c>
       <c r="R15">
-        <v>7.265908446951999</v>
+        <v>10.541181274624</v>
       </c>
       <c r="S15">
-        <v>0.001364764479947045</v>
+        <v>0.005981821498150645</v>
       </c>
       <c r="T15">
-        <v>0.001949328171069046</v>
+        <v>0.008824401557217349</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H16">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I16">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J16">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N16">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O16">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P16">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q16">
-        <v>2.401466829917777</v>
+        <v>3.938991561393778</v>
       </c>
       <c r="R16">
-        <v>21.61320146925999</v>
+        <v>35.450924052544</v>
       </c>
       <c r="S16">
-        <v>0.004059634095108794</v>
+        <v>0.02011739425611743</v>
       </c>
       <c r="T16">
-        <v>0.005798479680636932</v>
+        <v>0.029677242167076</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H17">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I17">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J17">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N17">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O17">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P17">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q17">
-        <v>6.078227233704166</v>
+        <v>5.596045975520001</v>
       </c>
       <c r="R17">
-        <v>36.469363402225</v>
+        <v>33.57627585312</v>
       </c>
       <c r="S17">
-        <v>0.01027512777122518</v>
+        <v>0.02858037683255671</v>
       </c>
       <c r="T17">
-        <v>0.009784152660323401</v>
+        <v>0.02810790680899281</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H18">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I18">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J18">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N18">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O18">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P18">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q18">
-        <v>8.573163090241556</v>
+        <v>7.013280585422223</v>
       </c>
       <c r="R18">
-        <v>77.158467812174</v>
+        <v>63.11952526880001</v>
       </c>
       <c r="S18">
-        <v>0.01449276948175234</v>
+        <v>0.03581854095564242</v>
       </c>
       <c r="T18">
-        <v>0.02070039500785202</v>
+        <v>0.05283962229296605</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1913536666666666</v>
+        <v>0.2776106666666667</v>
       </c>
       <c r="H19">
-        <v>0.5740609999999999</v>
+        <v>0.832832</v>
       </c>
       <c r="I19">
-        <v>0.05583125657941317</v>
+        <v>0.2078490706361452</v>
       </c>
       <c r="J19">
-        <v>0.06452307230267142</v>
+        <v>0.2410638589170663</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N19">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O19">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P19">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q19">
-        <v>2.331929417727555</v>
+        <v>2.470211914837333</v>
       </c>
       <c r="R19">
-        <v>20.98736475954799</v>
+        <v>22.231907233536</v>
       </c>
       <c r="S19">
-        <v>0.003942082419651039</v>
+        <v>0.01261597701147588</v>
       </c>
       <c r="T19">
-        <v>0.00563057760237134</v>
+        <v>0.01861112826925789</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H20">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I20">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J20">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N20">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O20">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P20">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q20">
-        <v>17.617023426528</v>
+        <v>26.1407542570615</v>
       </c>
       <c r="R20">
-        <v>70.468093706112</v>
+        <v>104.563017028246</v>
       </c>
       <c r="S20">
-        <v>0.02978124372390858</v>
+        <v>0.1335072318244588</v>
       </c>
       <c r="T20">
-        <v>0.01890547358609802</v>
+        <v>0.08753345818202057</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H21">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I21">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J21">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P21">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q21">
-        <v>1.108135808632</v>
+        <v>1.493000290161334</v>
       </c>
       <c r="R21">
-        <v>6.648814851792001</v>
+        <v>8.958001740968001</v>
       </c>
       <c r="S21">
-        <v>0.001873282551600952</v>
+        <v>0.007625118001279886</v>
       </c>
       <c r="T21">
-        <v>0.001783771731979</v>
+        <v>0.007499065090821465</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H22">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I22">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J22">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N22">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O22">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P22">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q22">
-        <v>3.29626538266</v>
+        <v>5.021091898338835</v>
       </c>
       <c r="R22">
-        <v>19.77759229596</v>
+        <v>30.12655139003301</v>
       </c>
       <c r="S22">
-        <v>0.005572274064860409</v>
+        <v>0.02564394559894347</v>
       </c>
       <c r="T22">
-        <v>0.005306014808734027</v>
+        <v>0.02522001852295045</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H23">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I23">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J23">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N23">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O23">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P23">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q23">
-        <v>8.343005103712501</v>
+        <v>7.133364129491252</v>
       </c>
       <c r="R23">
-        <v>33.37202041485001</v>
+        <v>28.53345651796501</v>
       </c>
       <c r="S23">
-        <v>0.01410369177402196</v>
+        <v>0.03643183701430513</v>
       </c>
       <c r="T23">
-        <v>0.008953184587324073</v>
+        <v>0.02388638157054226</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H24">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I24">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J24">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N24">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O24">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P24">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q24">
-        <v>11.767566539834</v>
+        <v>8.939934442454168</v>
       </c>
       <c r="R24">
-        <v>70.60539923900402</v>
+        <v>53.63960665472501</v>
       </c>
       <c r="S24">
-        <v>0.01989284788214509</v>
+        <v>0.0456584338908957</v>
       </c>
       <c r="T24">
-        <v>0.01894231048615864</v>
+        <v>0.04490364183679833</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.262653</v>
+        <v>0.3538745</v>
       </c>
       <c r="H25">
-        <v>0.5253060000000001</v>
+        <v>0.7077490000000001</v>
       </c>
       <c r="I25">
-        <v>0.07663426204368148</v>
+        <v>0.2649483423313366</v>
       </c>
       <c r="J25">
-        <v>0.05904312785405578</v>
+        <v>0.2048584889685972</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N25">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O25">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P25">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q25">
-        <v>3.200817982868</v>
+        <v>3.148816350442</v>
       </c>
       <c r="R25">
-        <v>19.204907897208</v>
+        <v>18.892898102652</v>
       </c>
       <c r="S25">
-        <v>0.005410922047144492</v>
+        <v>0.01608177600145356</v>
       </c>
       <c r="T25">
-        <v>0.00515237265376202</v>
+        <v>0.01581592376546411</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H26">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I26">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J26">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N26">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O26">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P26">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q26">
-        <v>70.52955527631998</v>
+        <v>5.005365935393</v>
       </c>
       <c r="R26">
-        <v>423.1773316579199</v>
+        <v>30.032195612358</v>
       </c>
       <c r="S26">
-        <v>0.119228874513504</v>
+        <v>0.02556362925611624</v>
       </c>
       <c r="T26">
-        <v>0.1135317765123585</v>
+        <v>0.02514102991154575</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H27">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I27">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J27">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.657032</v>
       </c>
       <c r="O27">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P27">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q27">
-        <v>4.436409254635555</v>
+        <v>0.2858759437626667</v>
       </c>
       <c r="R27">
-        <v>39.92768329171999</v>
+        <v>2.572883493864</v>
       </c>
       <c r="S27">
-        <v>0.007499665640016912</v>
+        <v>0.001460038433537098</v>
       </c>
       <c r="T27">
-        <v>0.01071196511961594</v>
+        <v>0.002153853208506003</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H28">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I28">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J28">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N28">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O28">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P28">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q28">
-        <v>13.19656141012222</v>
+        <v>0.9614260590676668</v>
       </c>
       <c r="R28">
-        <v>118.7690526911</v>
+        <v>8.652834531609001</v>
       </c>
       <c r="S28">
-        <v>0.0223085365874337</v>
+        <v>0.004910238261979346</v>
       </c>
       <c r="T28">
-        <v>0.03186385597234798</v>
+        <v>0.007243598656147588</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H29">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I29">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J29">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N29">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O29">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P29">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q29">
-        <v>33.40112715902083</v>
+        <v>1.3658786379075</v>
       </c>
       <c r="R29">
-        <v>200.406762954125</v>
+        <v>8.195271827445001</v>
       </c>
       <c r="S29">
-        <v>0.05646397149465018</v>
+        <v>0.006975876601033138</v>
       </c>
       <c r="T29">
-        <v>0.05376596079504842</v>
+        <v>0.006860556477670925</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H30">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I30">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J30">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N30">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O30">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P30">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q30">
-        <v>47.11132037715445</v>
+        <v>1.711796181658333</v>
       </c>
       <c r="R30">
-        <v>424.00188339439</v>
+        <v>15.406165634925</v>
       </c>
       <c r="S30">
-        <v>0.07964079290457582</v>
+        <v>0.008742562185218775</v>
       </c>
       <c r="T30">
-        <v>0.1137529906853886</v>
+        <v>0.0128970547491538</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.051528333333333</v>
+        <v>0.067759</v>
       </c>
       <c r="H31">
-        <v>3.154585</v>
+        <v>0.203277</v>
       </c>
       <c r="I31">
-        <v>0.3068044067382527</v>
+        <v>0.0507316427943495</v>
       </c>
       <c r="J31">
-        <v>0.354567748096322</v>
+        <v>0.05883868301060056</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N31">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O31">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P31">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q31">
-        <v>12.81443881786444</v>
+        <v>0.602927442044</v>
       </c>
       <c r="R31">
-        <v>115.32994936078</v>
+        <v>5.426346978396</v>
       </c>
       <c r="S31">
-        <v>0.02166256559807211</v>
+        <v>0.003079298056464909</v>
       </c>
       <c r="T31">
-        <v>0.03094119901156252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H32">
-        <v>1.083641</v>
-      </c>
-      <c r="I32">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J32">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>67.073376</v>
-      </c>
-      <c r="N32">
-        <v>134.146752</v>
-      </c>
-      <c r="O32">
-        <v>0.3886152607163267</v>
-      </c>
-      <c r="P32">
-        <v>0.3201976973989085</v>
-      </c>
-      <c r="Q32">
-        <v>24.227820080672</v>
-      </c>
-      <c r="R32">
-        <v>145.366920484032</v>
-      </c>
-      <c r="S32">
-        <v>0.04095666999199199</v>
-      </c>
-      <c r="T32">
-        <v>0.03899964268885724</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H33">
-        <v>1.083641</v>
-      </c>
-      <c r="I33">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J33">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>4.219010666666667</v>
-      </c>
-      <c r="N33">
-        <v>12.657032</v>
-      </c>
-      <c r="O33">
-        <v>0.02444445215030819</v>
-      </c>
-      <c r="P33">
-        <v>0.03021133528677833</v>
-      </c>
-      <c r="Q33">
-        <v>1.523964312612445</v>
-      </c>
-      <c r="R33">
-        <v>13.715678813512</v>
-      </c>
-      <c r="S33">
-        <v>0.002576232744977095</v>
-      </c>
-      <c r="T33">
-        <v>0.003679699419792379</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H34">
-        <v>1.083641</v>
-      </c>
-      <c r="I34">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J34">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>12.54988666666667</v>
-      </c>
-      <c r="N34">
-        <v>37.64966</v>
-      </c>
-      <c r="O34">
-        <v>0.07271256897710082</v>
-      </c>
-      <c r="P34">
-        <v>0.0898667635266472</v>
-      </c>
-      <c r="Q34">
-        <v>4.533190579117778</v>
-      </c>
-      <c r="R34">
-        <v>40.79871521206</v>
-      </c>
-      <c r="S34">
-        <v>0.007663272632103191</v>
-      </c>
-      <c r="T34">
-        <v>0.01094564918990331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H35">
-        <v>1.083641</v>
-      </c>
-      <c r="I35">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J35">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>31.7643625</v>
-      </c>
-      <c r="N35">
-        <v>63.528725</v>
-      </c>
-      <c r="O35">
-        <v>0.1840389846252172</v>
-      </c>
-      <c r="P35">
-        <v>0.1516380468435678</v>
-      </c>
-      <c r="Q35">
-        <v>11.47372184795417</v>
-      </c>
-      <c r="R35">
-        <v>68.842331087725</v>
-      </c>
-      <c r="S35">
-        <v>0.01939610900782012</v>
-      </c>
-      <c r="T35">
-        <v>0.01846930722168116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H36">
-        <v>1.083641</v>
-      </c>
-      <c r="I36">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J36">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>44.80271133333334</v>
-      </c>
-      <c r="N36">
-        <v>134.408134</v>
-      </c>
-      <c r="O36">
-        <v>0.2595816460111038</v>
-      </c>
-      <c r="P36">
-        <v>0.3208215955797718</v>
-      </c>
-      <c r="Q36">
-        <v>16.18335163732156</v>
-      </c>
-      <c r="R36">
-        <v>145.650164735894</v>
-      </c>
-      <c r="S36">
-        <v>0.02735764877595864</v>
-      </c>
-      <c r="T36">
-        <v>0.03907563263608532</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.3612136666666667</v>
-      </c>
-      <c r="H37">
-        <v>1.083641</v>
-      </c>
-      <c r="I37">
-        <v>0.1053913063437019</v>
-      </c>
-      <c r="J37">
-        <v>0.1217986356731064</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>12.18648933333333</v>
-      </c>
-      <c r="N37">
-        <v>36.559468</v>
-      </c>
-      <c r="O37">
-        <v>0.07060708751994335</v>
-      </c>
-      <c r="P37">
-        <v>0.08726456136432641</v>
-      </c>
-      <c r="Q37">
-        <v>4.401926495887555</v>
-      </c>
-      <c r="R37">
-        <v>39.61733846298799</v>
-      </c>
-      <c r="S37">
-        <v>0.007441373190850924</v>
-      </c>
-      <c r="T37">
-        <v>0.01062870451678703</v>
+        <v>0.004542590007576483</v>
       </c>
     </row>
   </sheetData>
